--- a/altre_fonti_storiche/1554-1599_Catalogo_dei_morti_di_Ancona/dati excel/Catalogo_dei_ morti_Ancona_1554-1589.xlsx
+++ b/altre_fonti_storiche/1554-1599_Catalogo_dei_morti_di_Ancona/dati excel/Catalogo_dei_ morti_Ancona_1554-1589.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Le origini dei Romagnoli frentani\altre_fonti_storiche\1554-1599_Catalogo_dei_morti_di_Ancona\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Romagnoli Frenteni (Libro e Repository)\REPOSITORY\altre_fonti_storiche\1554-1599_Catalogo_dei_morti_di_Ancona\dati excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE08EA8-A8AF-4DA0-AEDE-F023056BF113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B1946D-989F-4D9A-A620-1279489C0198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B2CF092-1473-4CC5-8411-DD87937D84B5}"/>
   </bookViews>
@@ -121,21 +121,6 @@
     <t>B</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Alessandro figlio di </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cenaro</t>
-    </r>
-  </si>
-  <si>
     <t>Battista figlio di Fabritio</t>
   </si>
   <si>
@@ -151,20 +136,6 @@
     <t>Parrocchia di S. Mariano</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Bartolomeo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>figlio di Nobile</t>
-    </r>
-  </si>
-  <si>
     <t>Luogo morte</t>
   </si>
   <si>
@@ -177,58 +148,6 @@
     <t>Parrocchia di S. Domenico</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Bartolomeo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d'Eusebio</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bartolomea </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>di Michele</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bartolomea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> d'Jseppe</t>
-    </r>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -241,49 +160,9 @@
     <t>Parrocchia di S. Nicola</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Diamante di </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ser.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Giovanni</t>
-    </r>
-  </si>
-  <si>
     <t>Dionara figlio di Pietro</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Domenico </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Beccaro</t>
-    </r>
-  </si>
-  <si>
     <t>Domenico D'Alessandro</t>
   </si>
   <si>
@@ -314,28 +193,6 @@
     <t>Faustina D'Alessandro</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Falsipio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> di Pietro</t>
-    </r>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -504,31 +361,6 @@
     <t>Grazia di Domenico</t>
   </si>
   <si>
-    <r>
-      <t>Giovan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Maria </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>di Lorenzo</t>
-    </r>
-  </si>
-  <si>
     <t>Parrocchia di S. Primiano</t>
   </si>
   <si>
@@ -547,28 +379,6 @@
     <t>Santa Maria della Piazza</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bianio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> D'Angelo</t>
-    </r>
-  </si>
-  <si>
     <t>Guidobaldo figlio di Gismondo</t>
   </si>
   <si>
@@ -581,30 +391,6 @@
     <t>Madalena di Simone</t>
   </si>
   <si>
-    <t>Stefano D'Ancona figlio di … scarpellino</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Palarrina</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> di Pietro Matteo</t>
-    </r>
-  </si>
-  <si>
     <t>Franceschino di Giovan Domenico</t>
   </si>
   <si>
@@ -891,13 +677,49 @@
   </si>
   <si>
     <t>Data di morte</t>
+  </si>
+  <si>
+    <t>Stefano D'Ancona</t>
+  </si>
+  <si>
+    <t>Diamante di Ser.. Giovanni</t>
+  </si>
+  <si>
+    <t>Alessandro figlio di Cenaro</t>
+  </si>
+  <si>
+    <t>Bartolomeo figlio di Nobile</t>
+  </si>
+  <si>
+    <t>Domenico Beccaro</t>
+  </si>
+  <si>
+    <t>Bartolomeo d'Eusebio</t>
+  </si>
+  <si>
+    <t>Bartolomea di Michele</t>
+  </si>
+  <si>
+    <t>Palarrina di Pietro Matteo</t>
+  </si>
+  <si>
+    <t>Bartolomea d'Jseppe</t>
+  </si>
+  <si>
+    <t>GiovanMaria di Lorenzo</t>
+  </si>
+  <si>
+    <t>Falsipio di Pietro</t>
+  </si>
+  <si>
+    <t>Bianio D'Angelo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,13 +743,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -975,17 +790,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1302,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94503A57-80D4-4CD5-BD55-A2D1256A2512}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1326,10 +1139,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -1338,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>3</v>
@@ -1346,28 +1159,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6">
         <v>291</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1378,10 +1191,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>5</v>
@@ -1390,36 +1203,36 @@
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B4" s="6">
         <v>295</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1430,13 +1243,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>7</v>
@@ -1444,8 +1257,8 @@
       <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>53</v>
+      <c r="H5" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1456,10 +1269,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>9</v>
@@ -1470,137 +1283,137 @@
       <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B7" s="6">
         <v>239</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6">
         <v>117</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B9" s="6">
         <v>189</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6">
         <v>356</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6">
         <v>119</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1612,39 +1425,39 @@
         <v>88</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>99</v>
+        <v>47</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B13" s="6">
         <v>155</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>7</v>
@@ -1652,25 +1465,25 @@
       <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B14" s="6">
         <v>198</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>7</v>
@@ -1678,51 +1491,51 @@
       <c r="G14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B15" s="6">
         <v>306</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B16" s="6">
         <v>360</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>7</v>
@@ -1730,25 +1543,25 @@
       <c r="G16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B17" s="6">
         <v>344</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>7</v>
@@ -1756,51 +1569,51 @@
       <c r="G17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B18" s="6">
         <v>209</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B19" s="6">
         <v>384</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>7</v>
@@ -1808,25 +1621,25 @@
       <c r="G19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B20" s="6">
         <v>385</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>7</v>
@@ -1834,7 +1647,7 @@
       <c r="G20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1846,10 +1659,10 @@
         <v>31</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>18</v>
@@ -1860,33 +1673,33 @@
       <c r="G21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B22" s="6">
         <v>277</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1898,21 +1711,21 @@
         <v>99</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>109</v>
+        <v>47</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1924,13 +1737,13 @@
         <v>64</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>7</v>
@@ -1938,7 +1751,7 @@
       <c r="G24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1950,39 +1763,39 @@
         <v>65</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>31</v>
+        <v>63</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B26" s="6">
         <v>315</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>7</v>
@@ -1990,51 +1803,51 @@
       <c r="G26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B27" s="6">
         <v>386</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B28" s="6">
         <v>142</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>7</v>
@@ -2042,51 +1855,51 @@
       <c r="G28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>53</v>
+      <c r="H28" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B29" s="6">
         <v>373</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>63</v>
+        <v>79</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B30" s="6">
         <v>251</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>7</v>
@@ -2094,7 +1907,7 @@
       <c r="G30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2106,39 +1919,39 @@
         <v>67</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B32" s="6">
         <v>229</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>7</v>
@@ -2146,7 +1959,7 @@
       <c r="G32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2158,10 +1971,10 @@
         <v>41</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>24</v>
@@ -2172,51 +1985,51 @@
       <c r="G33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B34" s="6">
         <v>390</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B35" s="6">
         <v>118</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>12</v>
@@ -2224,25 +2037,25 @@
       <c r="G35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B36" s="6">
         <v>301</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>12</v>
@@ -2250,103 +2063,103 @@
       <c r="G36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B37" s="6">
         <v>302</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B38" s="6">
         <v>302</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B39" s="6">
         <v>382</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>127</v>
+        <v>63</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B40" s="6">
         <v>202</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>12</v>
@@ -2354,85 +2167,85 @@
       <c r="G40" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B41" s="6">
         <v>361</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B42" s="6">
         <v>123</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H42" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B43" s="6">
         <v>309</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2444,10 +2257,10 @@
         <v>26</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>11</v>
@@ -2458,7 +2271,7 @@
       <c r="G44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2470,21 +2283,21 @@
         <v>63</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2496,10 +2309,10 @@
         <v>29</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>14</v>
@@ -2510,25 +2323,25 @@
       <c r="G46" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>53</v>
+      <c r="H46" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B47" s="6">
         <v>248</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>12</v>
@@ -2536,7 +2349,7 @@
       <c r="G47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2548,10 +2361,10 @@
         <v>29</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>15</v>
@@ -2562,33 +2375,33 @@
       <c r="G48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B49" s="6">
         <v>384</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2600,13 +2413,13 @@
         <v>30</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>12</v>
@@ -2614,51 +2427,51 @@
       <c r="G50" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>53</v>
+      <c r="H50" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B51" s="6">
         <v>249</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B52" s="6">
         <v>215</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>103</v>
+        <v>63</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>12</v>
@@ -2666,25 +2479,25 @@
       <c r="G52" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="8" t="s">
-        <v>63</v>
+      <c r="H52" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B53" s="6">
         <v>164</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>12</v>
@@ -2692,51 +2505,51 @@
       <c r="G53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B54" s="6">
         <v>215</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>124</v>
+        <v>63</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B55" s="6">
         <v>365</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>12</v>
@@ -2744,25 +2557,25 @@
       <c r="G55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B56" s="6">
         <v>165</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>12</v>
@@ -2770,8 +2583,8 @@
       <c r="G56" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H56" s="8" t="s">
-        <v>53</v>
+      <c r="H56" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2782,74 +2595,74 @@
         <v>64</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B58" s="6">
         <v>279</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H58" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B59" s="6">
         <v>250</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2860,10 +2673,10 @@
         <v>33</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>20</v>
@@ -2874,7 +2687,7 @@
       <c r="G60" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2886,13 +2699,13 @@
         <v>65</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>12</v>
@@ -2900,7 +2713,7 @@
       <c r="G61" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2912,10 +2725,10 @@
         <v>34</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>21</v>
@@ -2926,181 +2739,181 @@
       <c r="G62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B63" s="6">
         <v>280</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B64" s="6">
         <v>220</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B65" s="6">
         <v>127</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B66" s="6">
         <v>396</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B67" s="6">
         <v>387</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B68" s="6">
         <v>369</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>49</v>
+        <v>107</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B69" s="6">
         <v>225</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>12</v>
@@ -3108,51 +2921,51 @@
       <c r="G69" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B70" s="6">
         <v>320</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H70" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B71" s="6">
         <v>320</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>12</v>
@@ -3160,8 +2973,8 @@
       <c r="G71" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H71" s="8" t="s">
-        <v>49</v>
+      <c r="H71" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -3172,13 +2985,13 @@
         <v>69</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>12</v>
@@ -3186,25 +2999,25 @@
       <c r="G72" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H72" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B73" s="6">
         <v>346</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>12</v>
@@ -3212,25 +3025,25 @@
       <c r="G73" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H73" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B74" s="6">
         <v>226</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>12</v>
@@ -3238,25 +3051,25 @@
       <c r="G74" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H74" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B75" s="6">
         <v>129</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>12</v>
@@ -3264,8 +3077,8 @@
       <c r="G75" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="8" t="s">
-        <v>49</v>
+      <c r="H75" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3276,10 +3089,10 @@
         <v>39</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>22</v>
@@ -3290,33 +3103,33 @@
       <c r="G76" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B77" s="6">
         <v>337</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H77" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3328,13 +3141,13 @@
         <v>69</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>12</v>
@@ -3342,25 +3155,25 @@
       <c r="G78" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H78" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B79" s="6">
         <v>172</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>12</v>
@@ -3368,34 +3181,34 @@
       <c r="G79" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B80" s="6">
         <v>136</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>49</v>
+        <v>107</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -3406,10 +3219,10 @@
         <v>40</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>23</v>
@@ -3420,25 +3233,25 @@
       <c r="G81" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H81" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B82" s="6">
         <v>389</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>12</v>
@@ -3446,77 +3259,77 @@
       <c r="G82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="8" t="s">
+      <c r="H82" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B83" s="6">
         <v>286</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H83" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B84" s="6">
         <v>325</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H84" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B85" s="6">
         <v>255</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>12</v>
@@ -3524,7 +3337,7 @@
       <c r="G85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3536,13 +3349,13 @@
         <v>71</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>12</v>
@@ -3550,77 +3363,77 @@
       <c r="G86" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H86" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B87" s="6">
         <v>233</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H87" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B88" s="6">
         <v>175</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>37</v>
+        <v>107</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B89" s="6">
         <v>131</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>12</v>
@@ -3628,7 +3441,7 @@
       <c r="G89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="H89" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3640,13 +3453,13 @@
         <v>70</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>12</v>
@@ -3654,7 +3467,7 @@
       <c r="G90" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="H90" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3666,10 +3479,10 @@
         <v>41</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>25</v>
@@ -3680,7 +3493,7 @@
       <c r="G91" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="H91" s="6" t="s">
         <v>8</v>
       </c>
     </row>
